--- a/2022/Realme/May/30.05.2022/realme Bank Statement May-20222.xlsx
+++ b/2022/Realme/May/30.05.2022/realme Bank Statement May-20222.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="May-2022" sheetId="7" r:id="rId1"/>
@@ -967,7 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,166 +2457,166 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="33" fillId="42" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2708,8 +2708,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3189,29 +3189,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="228"/>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
+      <c r="A1" s="226"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -4159,67 +4159,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="239"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="235"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4228,52 +4228,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="229" t="s">
+      <c r="C4" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="229" t="s">
+      <c r="D4" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="229" t="s">
+      <c r="F4" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="229" t="s">
+      <c r="G4" s="227" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="229" t="s">
+      <c r="H4" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="229" t="s">
+      <c r="I4" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="229" t="s">
+      <c r="J4" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="229" t="s">
+      <c r="K4" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="229" t="s">
+      <c r="L4" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="229" t="s">
+      <c r="M4" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="233" t="s">
+      <c r="N4" s="229" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="231" t="s">
+      <c r="O4" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="240" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="64" t="s">
@@ -4286,22 +4286,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="230"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="245"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="241"/>
       <c r="Q5" s="69" t="s">
         <v>32</v>
       </c>
@@ -7413,6 +7413,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7426,12 +7432,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7466,14 +7466,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="250"/>
       <c r="H1" s="38"/>
       <c r="I1" s="116"/>
       <c r="J1" s="116"/>
@@ -7526,14 +7526,14 @@
       <c r="BE1" s="116"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="251" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="255"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="253"/>
       <c r="H2" s="38"/>
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
@@ -7586,14 +7586,14 @@
       <c r="BE2" s="116"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256"/>
       <c r="H3" s="38"/>
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
@@ -9584,13 +9584,13 @@
       <c r="BE34" s="116"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="260" t="s">
+      <c r="A35" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="261"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="262"/>
+      <c r="B35" s="259"/>
+      <c r="C35" s="259"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="260"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9645,12 +9645,12 @@
       <c r="BE35" s="116"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="248" t="s">
+      <c r="A36" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="259"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="249"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="257"/>
+      <c r="D36" s="247"/>
       <c r="E36" s="134">
         <f>F33-C121</f>
         <v>0</v>
@@ -14095,10 +14095,10 @@
       <c r="AX118" s="116"/>
     </row>
     <row r="119" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A119" s="246" t="s">
+      <c r="A119" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="B119" s="247"/>
+      <c r="B119" s="245"/>
       <c r="C119" s="175">
         <f>SUM(C37:C118)</f>
         <v>839640</v>
@@ -14202,10 +14202,10 @@
       <c r="AX120" s="116"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A121" s="248" t="s">
+      <c r="A121" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="B121" s="249"/>
+      <c r="B121" s="247"/>
       <c r="C121" s="133">
         <f>C119</f>
         <v>839640</v>
@@ -14975,8 +14975,8 @@
   </sheetPr>
   <dimension ref="A1:AB216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15001,35 +15001,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="265"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="263"/>
       <c r="F1" s="143"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="274"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
       <c r="F2" s="143"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="264" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="268"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="266"/>
       <c r="F3" s="143"/>
       <c r="G3" s="29"/>
       <c r="H3" s="1"/>
@@ -15055,13 +15055,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="273" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="276"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="277"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="275"/>
       <c r="F4" s="143"/>
       <c r="G4" s="29"/>
       <c r="I4" s="1"/>
@@ -15097,7 +15097,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="140">
-        <v>6539368</v>
+        <v>6639368</v>
       </c>
       <c r="F5" s="143"/>
       <c r="I5" s="1"/>
@@ -15165,9 +15165,7 @@
       <c r="D7" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="141">
-        <v>1642763.75</v>
-      </c>
+      <c r="E7" s="141"/>
       <c r="F7" s="143"/>
       <c r="G7" s="15" t="s">
         <v>11</v>
@@ -15269,7 +15267,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="124">
-        <v>839640</v>
+        <v>879640</v>
       </c>
       <c r="F10" s="143"/>
       <c r="G10" s="28"/>
@@ -15296,10 +15294,10 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="21.75">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="276" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="225">
+      <c r="B11" s="277">
         <f>B6-B9-B10</f>
         <v>270415.75</v>
       </c>
@@ -15377,7 +15375,7 @@
       <c r="F13" s="143"/>
       <c r="G13" s="110">
         <f>B18-E18</f>
-        <v>0</v>
+        <v>1502763.75</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -15401,7 +15399,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="185">
-        <f>B12+B11</f>
+        <f>B11+B12+B13</f>
         <v>305605.75</v>
       </c>
       <c r="C14" s="32"/>
@@ -15514,7 +15512,7 @@
       </c>
       <c r="E18" s="124">
         <f>SUM(E5:E17)</f>
-        <v>9305605.75</v>
+        <v>7802842</v>
       </c>
       <c r="F18" s="143"/>
       <c r="G18" s="127"/>
@@ -15568,13 +15566,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="269" t="s">
+      <c r="A20" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="270"/>
-      <c r="C20" s="270"/>
-      <c r="D20" s="270"/>
-      <c r="E20" s="271"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="269"/>
       <c r="F20" s="143"/>
       <c r="G20" s="127"/>
       <c r="H20" s="1"/>
